--- a/excel_files/report_chart.xlsx
+++ b/excel_files/report_chart.xlsx
@@ -260,6 +260,43 @@
         <axId val="10"/>
         <axId val="100"/>
       </barChart>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'top10'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'top10'!$B$2:$B$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'top10'!$D$2:$D$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
       <catAx>
         <axId val="10"/>
         <scaling>
@@ -290,7 +327,6 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="5000000"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -323,48 +359,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <pieChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'top10'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'top10'!$B$2:$B$11</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'top10'!$D$2:$D$11</f>
-            </numRef>
-          </val>
-        </ser>
-        <firstSliceAng val="0"/>
-      </pieChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -374,7 +368,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10800000" cy="5400000"/>
+    <ext cx="5400000" cy="2520000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -384,28 +378,6 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>20</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="10800000" cy="5400000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
